--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed3/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.312100000000006</v>
+        <v>8.460500000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -508,7 +508,7 @@
         <v>-11.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.510000000000004</v>
+        <v>-7.451100000000005</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.49800000000002</v>
+        <v>-22.55560000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.223099999999993</v>
+        <v>-8.296999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.1802</v>
+        <v>-22.11129999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.251900000000006</v>
+        <v>6.9245</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.45429999999998</v>
+        <v>-21.49329999999998</v>
       </c>
       <c r="B12" t="n">
-        <v>5.416300000000001</v>
+        <v>5.370099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.847200000000002</v>
+        <v>-5.852900000000002</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.383499999999989</v>
+        <v>-8.643999999999991</v>
       </c>
     </row>
     <row r="14">
@@ -642,13 +642,13 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.686999999999995</v>
+        <v>5.848299999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.541500000000003</v>
+        <v>-8.103499999999999</v>
       </c>
     </row>
     <row r="16">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>4.812599999999998</v>
+        <v>4.825199999999999</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.26330000000001</v>
+        <v>-22.1659</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.196799999999988</v>
+        <v>-7.556599999999992</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.04250000000002</v>
+        <v>-22.02670000000002</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.9605</v>
+        <v>-7.869799999999999</v>
       </c>
     </row>
     <row r="26">
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.044799999999998</v>
+        <v>5.109500000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.183200000000003</v>
+        <v>6.704900000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.508300000000002</v>
+        <v>6.6051</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -880,13 +880,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>8.101900000000006</v>
+        <v>7.7811</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.193899999999996</v>
+        <v>-8.077699999999991</v>
       </c>
     </row>
     <row r="33">
@@ -942,15 +942,15 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.218000000000006</v>
+        <v>-6.903300000000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-21.4989</v>
+        <v>-21.79949999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>6.950600000000001</v>
+        <v>6.749399999999997</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.592799999999998</v>
+        <v>-7.693099999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1006,13 +1006,13 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>8.707500000000005</v>
+        <v>9.014300000000002</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.541999999999996</v>
+        <v>-8.009599999999997</v>
       </c>
     </row>
     <row r="42">
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.147500000000004</v>
+        <v>6.717300000000003</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1138,7 +1138,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.059299999999999</v>
+        <v>-8.013400000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.987200000000001</v>
+        <v>5.556</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.966</v>
+        <v>-7.789500000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.69</v>
+        <v>-21.64299999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.386599999999994</v>
+        <v>-8.272200000000002</v>
       </c>
     </row>
     <row r="60">
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.971900000000002</v>
+        <v>5.920200000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1376,12 +1376,12 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.345299999999996</v>
+        <v>-7.435499999999995</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.4706</v>
+        <v>-21.4734</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.324899999999994</v>
+        <v>8.147899999999998</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.56549999999999</v>
+        <v>-19.76359999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.78829999999997</v>
+        <v>-19.79999999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-19.85979999999999</v>
+        <v>-20.13029999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.5549</v>
+        <v>-19.1915</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.20550000000001</v>
+        <v>-22.24990000000001</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8221</v>
+        <v>-21.91910000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,16 +1605,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.9912</v>
+        <v>-21.8596</v>
       </c>
       <c r="B84" t="n">
-        <v>6.362700000000003</v>
+        <v>6.352600000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.337999999999999</v>
+        <v>-8.307599999999997</v>
       </c>
     </row>
     <row r="85">
@@ -1622,7 +1622,7 @@
         <v>-21.53</v>
       </c>
       <c r="B85" t="n">
-        <v>6.295699999999999</v>
+        <v>6.350499999999998</v>
       </c>
       <c r="C85" t="n">
         <v>-13.1</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.234299999999996</v>
+        <v>-8.183600000000002</v>
       </c>
     </row>
     <row r="87">
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.126200000000004</v>
+        <v>-7.9537</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.055</v>
+        <v>4.4004</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.172299999999996</v>
+        <v>-8.096600000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.588999999999996</v>
+        <v>5.449699999999996</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1762,13 +1762,13 @@
         <v>-22.29</v>
       </c>
       <c r="B95" t="n">
-        <v>5.100300000000007</v>
+        <v>5.348200000000005</v>
       </c>
       <c r="C95" t="n">
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.7381</v>
+        <v>-7.726399999999996</v>
       </c>
     </row>
     <row r="96">
@@ -1804,7 +1804,7 @@
         <v>-20.86</v>
       </c>
       <c r="B98" t="n">
-        <v>7.390700000000002</v>
+        <v>7.532600000000002</v>
       </c>
       <c r="C98" t="n">
         <v>-10.59</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.520100000000002</v>
+        <v>6.8111</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.78690000000001</v>
+        <v>-21.8891</v>
       </c>
       <c r="B101" t="n">
-        <v>5.738799999999995</v>
+        <v>6.168099999999998</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1857,10 +1857,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.89940000000002</v>
+        <v>-21.97870000000002</v>
       </c>
       <c r="B102" t="n">
-        <v>5.539999999999997</v>
+        <v>5.479699999999998</v>
       </c>
       <c r="C102" t="n">
         <v>-12.7</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.555700000000004</v>
+        <v>-7.669300000000004</v>
       </c>
     </row>
   </sheetData>
